--- a/Tahsilat Tahakkuk Harita Analizi/veriler/Tahsilat Tahakkuk Excel Dosyaları/Yıllar/İllere Göre Tahsilat Tahakkuk 2020/11_Aydın_2020.xlsx
+++ b/Tahsilat Tahakkuk Harita Analizi/veriler/Tahsilat Tahakkuk Excel Dosyaları/Yıllar/İllere Göre Tahsilat Tahakkuk 2020/11_Aydın_2020.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="BuÇalışmaKitabı" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HUSOCAN\Desktop\Yazılarım\İllere Göre Tahsilat Tahakkuk (Yıllara Göre)\indirilen_exceller_2020\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HUSOCAN\Desktop\İllere Göre Tahsilat Tahakkuk 2020\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{1B881A75-5ACC-4841-8B62-90A7124E30FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{7D6C6EF6-BFE8-488A-B5D8-0CD3E6514725}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="662" xr2:uid="{0A118D43-D325-4C72-BD1C-F43381E7C893}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="662" xr2:uid="{8C9E0366-E1C9-4015-9EFD-B06D62029684}"/>
   </bookViews>
   <sheets>
     <sheet name="ARALIK" sheetId="103" r:id="rId1"/>
@@ -952,13 +952,13 @@
   <cellStyles count="9">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="2" xr:uid="{83260721-087C-4BE0-8952-1D2C7812CB7B}"/>
-    <cellStyle name="Normal 2 2" xfId="3" xr:uid="{3B7E9147-DFAD-4045-815D-E5D62A3CE3EC}"/>
-    <cellStyle name="Normal 3" xfId="4" xr:uid="{89A0763E-D243-43F7-9C4A-458C861B73F5}"/>
-    <cellStyle name="Normal_genel_gelir_det3" xfId="5" xr:uid="{8809671C-D0E6-4CFF-AFDD-73C884A7D6F2}"/>
-    <cellStyle name="Normal_genelgelirtahk_tahs" xfId="6" xr:uid="{0A19AAA2-3827-45F8-862E-56B5188B1B38}"/>
-    <cellStyle name="Not 2" xfId="7" xr:uid="{06F2E4FA-88D2-4EE3-B96F-8BA4689F32B0}"/>
-    <cellStyle name="Virgül [0]_29dan32ye" xfId="8" xr:uid="{B9DD352A-CA9D-4B79-BADF-C1447E94A5C0}"/>
+    <cellStyle name="Normal 2" xfId="2" xr:uid="{2E7C38BC-2C63-456C-928C-C26FBDC71723}"/>
+    <cellStyle name="Normal 2 2" xfId="3" xr:uid="{EABA4A59-0BE7-4470-B553-2703F2A69318}"/>
+    <cellStyle name="Normal 3" xfId="4" xr:uid="{6DF75F9D-1827-48C7-A4CD-F8793AF53372}"/>
+    <cellStyle name="Normal_genel_gelir_det3" xfId="5" xr:uid="{EE8DBB1F-AD68-4B6F-AB94-FEEBC5E9FAA2}"/>
+    <cellStyle name="Normal_genelgelirtahk_tahs" xfId="6" xr:uid="{CEF4A401-2490-47D9-A4F2-BFCEEC65E4D3}"/>
+    <cellStyle name="Not 2" xfId="7" xr:uid="{5E6024F1-F653-4CD3-BB20-6EF8B94630F3}"/>
+    <cellStyle name="Virgül [0]_29dan32ye" xfId="8" xr:uid="{9E4BB8ED-750E-4AB8-8C3F-C983639A68C7}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1328,7 +1328,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EE4DF30B-3083-4CCF-8F5E-8D94D391EB96}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2A8C6A86-4661-4053-8482-626E29EE8EAD}">
   <dimension ref="A2:F103"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -2596,18 +2596,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{F85762BB-2F6B-45A7-ABEE-EA677C82D78B}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{100F9FAC-8BE4-4571-ADD4-9230D3471E5B}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{A9229FB9-7B1D-4096-AD48-F859A80BEA67}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{0D36F005-5632-4667-9E5A-478464A87152}"/>
-    <hyperlink ref="D5" location="'MAYIS '!A1" display="MAYIS" xr:uid="{7B13B81C-5702-4929-B594-52627E563CD6}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{C981DF71-4AB9-484A-A2AA-5C10E4B8E593}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{A0B0EB78-48F8-4EA0-AA3E-D2E8F0AB0A13}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{55B3F649-4D44-4382-9A3E-2D7CF532D9BB}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{B7245032-A488-4908-B660-D3A358402DF9}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{7AF1EBE4-F214-4DB7-B8E2-1D64E2882999}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{055A8AA4-9DCD-4317-BFA3-0BC13A8EA244}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{91CEC797-A669-450F-8DE1-797AEAD10E0A}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{584C2D60-4D66-4052-A369-022D97228167}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{13027635-3B85-4342-A7B0-9137E3E56634}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{C2B19B6D-6AAB-4A23-B7F8-089223786E9E}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{B5C74542-1E07-4DFB-90D4-C94B4F5BCFEE}"/>
+    <hyperlink ref="D5" location="'MAYIS '!A1" display="MAYIS" xr:uid="{364BA8D6-3092-44EC-A753-76375E18FE96}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{34415EB3-4CC7-4C85-852A-2006FADA82BC}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{B9496A42-C8DD-4E85-AE1C-0FE7FE0DE141}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{932D1126-ED97-4218-9E04-91E4AB03FD80}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{7B0A5397-F1B2-4B23-82DF-C97D27B65882}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{CC30D719-BE25-4841-AB6B-AD54DDEF34B8}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{21B4CBA5-AE98-4205-A692-A82269989DB4}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{CBEE5B8B-A7E1-475E-9E5E-F70A44D02890}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -2620,7 +2620,7 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{63422542-4A84-406B-815A-5EF803B89182}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{270429F8-1AC7-40EA-9D8E-59CA6F52E49D}">
   <dimension ref="B2:F101"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -3869,18 +3869,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{7D52B242-B228-4FFC-8CFE-65183A87FDFF}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{04366B3D-7233-440D-BC25-44A7E8B382E6}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{9C43DEF1-51F6-4B84-A194-A4C34CD9CC61}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{B0C18E32-2809-4F59-822D-68EF54BDCEA4}"/>
-    <hyperlink ref="D5" location="'MAYIS '!A1" display="MAYIS" xr:uid="{73BA34CE-C1C3-4066-AF05-654FA3375492}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{68C47D91-8311-467E-8701-85827F3D9BB0}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{55BDD6B1-82F7-4E46-9563-7F7BA3415C27}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{B5081504-5D43-4C79-88AF-9578D19AFC00}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{85F7D8DB-F04B-4973-9B0B-D7EC3A491F40}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{6F646C70-AF30-4DCD-9301-001108688D72}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{E97953C8-2184-47A6-92BE-869852F0326A}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{0BE67F77-F95E-400F-8A7D-3E9643CCF87D}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{E0CE050E-E21A-4266-BD8E-46B5E267A0CB}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{37C12376-C739-456E-B415-007B0E15D827}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{87A55FF5-D4DF-4C81-9C89-C42D6CD47C85}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{B9EBA052-1C8C-4F8A-A04D-7FCF9A18A525}"/>
+    <hyperlink ref="D5" location="'MAYIS '!A1" display="MAYIS" xr:uid="{6AA31605-001A-4BAB-A675-DAD77EB88B49}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{259E4C0A-5765-4292-951D-64B601D69207}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{7C132FA4-1AEA-44D1-ABE6-E9DAA021DB15}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{16F69662-9C2A-4AF6-A2F8-1A0076A21A0B}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{961CFA7E-4428-4F61-8B65-7E769F349458}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{A4BA954D-4AF8-413F-8861-6158551A630F}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{9346EAAA-3A8A-48C4-A9EA-E3CB9BAFBE23}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{2A367D86-8846-4CF1-973B-A4D62739562B}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -3893,7 +3893,7 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1EE462BF-6605-4239-84CF-0527AD033236}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{250D46E6-C4CE-4DA9-B226-04E66CB55B6C}">
   <dimension ref="B2:F101"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -5142,18 +5142,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{7EA42017-A3DD-4217-A12F-11FF989ADC03}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{D29E999D-8675-49C2-9CEB-E9FE2094CF54}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{91627580-3079-47E2-899A-47CEA9A62FBC}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{95312E29-A137-41BC-A64A-C75308C50BD1}"/>
-    <hyperlink ref="D5" location="'MAYIS '!A1" display="MAYIS" xr:uid="{8F54D2F4-B76A-4E5F-9AE6-D8CBA36585FB}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{BF17F275-DDAD-4871-B113-901E77F784C1}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{278BC623-03AA-4B9C-BF52-ADE922AD9331}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{E5A00ECE-AD83-449E-959D-98DCC67158A9}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{FE9A8501-EED3-416B-90CF-2ACB882472F3}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{FD6C4D36-7CD7-4B7D-A91A-6CBB58C1170A}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{10FA2D72-A336-4A32-8CB7-A7413FC08693}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{B38BBFC1-431B-435B-91C3-6E496FD6E5DA}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{0526FA59-19A3-46E6-93EF-0881A12F7E57}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{F53E320A-D81C-4136-8460-82E886614BD7}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{DB646FF2-E0B5-4978-996A-85F2E4921EE4}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{90DD11D6-D29B-4BE5-80E8-5A0E226A0EFA}"/>
+    <hyperlink ref="D5" location="'MAYIS '!A1" display="MAYIS" xr:uid="{87780689-E2AD-49A9-B4D7-C9853DFC1AD3}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{52AFFCB6-0A61-4CF0-B850-BC3F25BA0F1E}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{A563F83B-CE4E-4282-A393-4376E7A765CF}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{B1E727E2-D899-40AE-BF7F-CE7F0361065B}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{1436D262-D597-47C1-ACE9-2AFEDE26C495}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{AAE23816-027C-4740-9E16-6AE78ABE9047}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{A505EBC5-5136-4355-B05B-0D22F3DE3DBD}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{F5A84DED-5C87-4198-9993-544C4AB7C597}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -5166,7 +5166,7 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A1B7636A-BACC-462E-B5F7-D04665EF1E16}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{20803DFF-7794-40BD-9A88-B61889C2EF16}">
   <sheetPr codeName="Sayfa2"/>
   <dimension ref="B2:F101"/>
   <sheetViews>
@@ -6416,18 +6416,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{431C4D52-FD00-44FF-8F2B-B1E9E5A4DB10}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{4C520B63-2FE6-4E4F-86D0-617244EF13AB}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{3DC2A662-87EC-403F-8F57-6D6F47D8204A}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{9A469F6C-F353-4937-B7BE-28AD5B549DF8}"/>
-    <hyperlink ref="D5" location="'MAYIS '!A1" display="MAYIS" xr:uid="{5595055E-1789-4509-97F7-1637A00972E0}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{FE4769F8-B245-4CB5-A19A-CC8F05E647F8}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{0B8430A8-79E3-4396-B1A3-29B0663B7443}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{1CEDDB7F-D5C5-4D84-9388-57AD527FBB87}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{CC02E694-6563-49DC-AFEA-06D7048534F3}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{F5099CD6-80CA-4D70-832D-38E7F195813B}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{4F988E82-BCA5-41B4-B5EA-59EE3E12E34E}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{6150BFD3-04C0-4CF5-BBD3-C3A82A0A352C}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{230E35CB-23BA-4C03-B189-5A2263257D04}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{DA3CB7B0-AB92-4A72-986C-4124DEFC6653}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{442EE640-93C4-43F1-ADB9-105ED6C6C100}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{7CF0D029-C774-4A1A-983B-65A4E1D5EFCA}"/>
+    <hyperlink ref="D5" location="'MAYIS '!A1" display="MAYIS" xr:uid="{08C7C4C5-2D11-4F82-9BB3-E6E9E9BCB075}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{15E29FB6-FCB8-47CE-84BE-64CBFFBC293F}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{E66160F6-DF46-41D2-8CB8-8F33B5BFDD93}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{412BBBC4-537F-46FA-BA2A-A954C72B793F}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{A76B6524-65A0-450A-AA8A-355FABE0AD5F}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{6A35FC83-C096-4E0C-8B73-583DEA6E4C75}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{045042F9-CEB5-498B-88B1-CA92E35FF7DC}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{A11CCCA7-1453-44AC-B43E-E2D6AF6808BE}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -6440,7 +6440,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AE7825C6-C081-468F-875C-239FF2DB10CF}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DDB5425B-957B-48B1-9C1A-44591C8F4C3C}">
   <dimension ref="B2:F102"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -7705,18 +7705,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{7AFEA8FD-BCCB-4FA6-8F51-1FF03AAD1881}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{B59EBE3C-B95E-4EB8-9C17-A07BEB91378A}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{F97D2E1A-7372-4061-A691-6E4DDDF48ABC}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{84CA7EBC-5FBA-4480-9634-0CC8D7698859}"/>
-    <hyperlink ref="D5" location="'MAYIS '!A1" display="MAYIS" xr:uid="{BBC41DB7-0007-40F1-A38A-A667007ABEB7}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{C675F929-AC01-43F0-8E8A-08395EFFC67D}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{1CF4F389-C4C1-4BE7-9BF6-C648D04DED65}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{F8574F78-793F-48E7-A299-2A65A3DCF271}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{71F4C587-1761-4AA8-B8AC-97F66F77D1EF}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{28070865-A9FD-44DF-ABA1-124B1D3CEA5B}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{18587BA3-A85F-4380-BECE-2CD3DA19E6E0}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{4DFDDC08-43F8-4260-97C0-A3A37EB5DDEB}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{0FDC74AD-CDFF-4183-BF17-D31BB44F45A5}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{400C1639-9256-4B57-909D-8EC31FAED22D}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{11674193-F4E4-47B4-A0D3-255F604ECBD7}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{D2B37A1B-6E1F-4DCD-AD2F-F3B57103DD3B}"/>
+    <hyperlink ref="D5" location="'MAYIS '!A1" display="MAYIS" xr:uid="{605072F3-FDA2-4B95-8A26-3F13A619BE6C}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{40A098AA-B6C4-43AD-8032-18D68CC2B7A2}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{F40792E9-5485-44F3-B5AE-8E23797F3DE0}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{0B689439-DF3F-4B97-839C-5A088BD184BE}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{252711B4-1ED3-4025-9035-D62B11F04E47}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{C51B3FE9-EFE8-487E-BEFA-7437A4A1F5B8}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{A96AD747-E51C-49D8-85DE-57DEAB6E4633}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{A8EE65E8-FAC8-47BC-8B01-A17393AEECBE}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -7729,7 +7729,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{47748C3B-BB91-4FA0-8ED9-43D66CCFDEC8}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D7A9CC58-3F8D-4217-B8BF-422714417A95}">
   <dimension ref="B2:F102"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -8994,18 +8994,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{C2B273DD-A3BA-455E-8CBF-AAB81A0CFDED}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{101E2723-2874-423F-919C-9E73E1C973E5}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{4EF90B43-D5D5-4BAB-9A64-8A090629CA17}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{8C875EC6-6AD0-4BC3-BCF9-297935D5BABE}"/>
-    <hyperlink ref="D5" location="'MAYIS '!A1" display="MAYIS" xr:uid="{7170940D-B037-44D5-B807-779679A080B1}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{08C1B3E3-6936-4FF9-91AC-D8D5AB6249B3}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{B70A06F7-2B93-42F4-AC1E-114733FF5ADF}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{F77EA8DA-EB67-42A6-A434-FC5211A4641B}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{C20F25F1-AF44-482B-9B18-CBD40AA2D046}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{DE27B091-DF84-4E66-BFED-ECE8B4F3FDFC}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{36F0B3B6-EF77-4C27-99FE-9B6218FFE718}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{830A0F8A-5BD5-4CDF-9831-7A873E04542E}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{EA6BE92E-89ED-4237-8D52-48C43F3B363F}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{AC269128-ED4A-4CA1-926B-FF43F70440AD}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{97B197F1-ECC6-4AF6-BB80-FCCFB442F0B5}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{B832E063-12E4-43DC-BEAB-8E0B81014B59}"/>
+    <hyperlink ref="D5" location="'MAYIS '!A1" display="MAYIS" xr:uid="{0E9EDB9B-0620-4DEC-92CD-12DC82FCED24}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{2B72A36C-AB6C-4FF0-BB11-EB06241D667E}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{6105EA87-BF22-4B06-9C43-F0120B0B299E}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{064FF107-5880-49A3-9B58-9CF444A4DBCE}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{D34E2AB5-CA8F-489B-A04A-CC56A16E898C}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{59877093-23F2-4D29-9791-B5CEFA5D430D}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{D6C0C3CB-1D10-44A2-9C96-8CC24912A84C}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{FC1ED31E-C823-4325-BEC5-9FF4467FDAD9}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -9018,7 +9018,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BA252136-672E-4DFA-AF40-042D1F23C070}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BEFBD403-B043-4C07-AEDB-5F6657500011}">
   <dimension ref="B2:F102"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -10283,18 +10283,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{68203FD7-3ECA-4E66-9686-79988C400814}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{66B2E13A-259D-4B4E-ACDB-6288492D2AF9}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{2AE91F1A-37FD-4ADD-B47D-9437F88AC8C6}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{91151811-FF4B-45A5-A563-2E7D23BA7C58}"/>
-    <hyperlink ref="D5" location="'MAYIS '!A1" display="MAYIS" xr:uid="{7DF3D398-A5A8-4634-A20C-FD53D5161737}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{5F872E10-5747-4645-856A-BF684CF8E84A}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{3473DF8D-E8A0-4372-9BA1-C60C1D0C64D2}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{25C5CD03-A262-4790-8050-36336E0E4796}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{8588EC65-2922-44DF-A89A-24BCD9826809}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{F3CD823A-CE7C-4DE4-B260-5066B7B0E5AD}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{33851ED6-5684-4432-91B1-5AE8511C6A46}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{7F0F1AD0-034F-4047-A9E4-F5447842467F}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{892CE94F-08ED-41BE-A9FE-91E463659D5F}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{9F2D5620-3A20-42C9-ADD7-4FB6A5847261}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{BFF13833-2CA1-47BF-BC49-DF9CEA92389C}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{C180480C-B1D2-4DA7-AB26-3FCE90D665BF}"/>
+    <hyperlink ref="D5" location="'MAYIS '!A1" display="MAYIS" xr:uid="{99CAAD05-9F2E-4A52-9DA7-03A7EDE0D46A}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{F554B850-9143-4236-B556-E07DFB74605E}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{8E3AF127-B35E-485A-9AD7-FDDA1555E66B}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{E8BBEBE6-73E8-4407-9D13-21842E911995}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{E3A63E04-92B9-47B7-BB43-953A082A5C54}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{B8860188-C58A-43C3-A8D6-3835C4F0F0C3}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{34BDB05E-B328-4780-9EAD-DBF89BE79DE6}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{367D2F4B-9C31-40B7-8A14-40537F47CF39}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -10307,7 +10307,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{085C073F-AC59-4AE8-A9DA-95009180AB38}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BD99BB93-E7C2-48F3-BC70-01C9EA8197CB}">
   <dimension ref="B2:F102"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -11572,18 +11572,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{F044EB85-80C5-47BF-9DEF-C1ED98A5DC90}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{6EC04FF2-C842-436C-B5F7-6AEA127DAC15}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{CD7A520D-10F3-470F-8ADB-CF4F522F14DE}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{547815F0-BCB1-42A7-997A-02A2D3C2B4D0}"/>
-    <hyperlink ref="D5" location="'MAYIS '!A1" display="MAYIS" xr:uid="{ED696B38-F155-4EC8-A103-43B594874134}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{33A70C44-F27D-43AC-A773-67AE10A32B93}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{22CF771A-483C-4AC2-9A4B-17720632975A}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{E1EF9316-3F27-4D26-B243-DA0C9EF9CA65}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{396749E9-E921-46FF-8254-35C159456E5E}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{46DF5D66-0F4D-4C77-AE75-1CD85FBDBD73}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{2F56C46F-69C8-4EF0-8AF6-7BF6B7158B5A}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{4934D306-45A2-496C-878E-440D62723195}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{D8E3A701-6D99-4408-9420-417E6370E5C4}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{7CA34FBE-2E47-43C4-90EC-C76106A34102}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{21FA23A2-2E66-484F-B077-5B92E3CEC206}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{26CF1551-18FD-4707-A190-2FB622AB6CB5}"/>
+    <hyperlink ref="D5" location="'MAYIS '!A1" display="MAYIS" xr:uid="{E36A300D-4B50-4307-99D4-A30FA81570B1}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{17E07822-529B-4ECF-B7F7-B543C8A9FB5B}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{0F17D408-0FE6-4448-B6E8-D80A696574A7}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{D83BD8FB-2E8A-4DCB-A557-236747431B27}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{894DE4D2-C755-4657-849E-03A0A34AF42A}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{B851FA57-E3E9-4ABA-B549-8F218EE781FA}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{441393DD-D204-4417-BDDF-22E40548E27F}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{8CD4E19F-8FD9-4BD3-A256-7C9851CFA667}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -11596,7 +11596,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BB99DBB1-1512-4612-B59A-683D94C4F655}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{38F338E2-52ED-4B28-9EC2-883C65119F71}">
   <dimension ref="B2:F102"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -12861,18 +12861,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{D1848B65-1517-4BC4-BE2B-163AF4F71ED3}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{90D26901-607A-4619-B268-7BA6830B79A0}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{25903B68-3032-4F2F-B350-711E55D73393}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{99A766B9-37E7-4248-B914-A85AFA898DCB}"/>
-    <hyperlink ref="D5" location="'MAYIS '!A1" display="MAYIS" xr:uid="{3AD770DC-3791-44D0-8F24-8287CD1CA149}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{C90A7A56-AFF8-4209-9EB8-1F8E406AC0E2}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{F8F49C9E-F1C3-4879-A6A7-29C6BB56E981}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{5C3D4392-9C25-4E8E-B4E7-1C9D04FD6C50}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{900FDE2B-E181-4C31-9F60-BD11EEC56507}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{3CC1CCD0-CF49-4D37-B4CD-FB9CCD4E49DA}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{7CE9D377-C2A4-401D-AE27-6AB1154AB556}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{CDF9A935-CEFF-446E-958B-D13874B6DD77}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{49982D61-E860-4D08-8C51-5487B19ADABC}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{2727AD8D-137C-4727-8111-D0DA7FD5A5BA}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{EC9F453F-5E9D-40B1-B7CD-3ADB8E2D2222}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{C4DA2BD0-34C9-406C-9263-4A31EA6B9699}"/>
+    <hyperlink ref="D5" location="'MAYIS '!A1" display="MAYIS" xr:uid="{CD80E04D-F0CD-4D67-8BEE-91BAD6B8953C}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{FC626910-D122-4AA1-A153-98A11952A146}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{07FE303F-7DA5-4598-BF5F-7563C769BE63}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{D2139E44-46DB-4252-B678-925902568589}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{03505E94-5100-487C-A408-2FD721FFF7A2}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{F8D825E0-BDED-4780-826B-CCFDEE6BC773}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{A98852A9-F855-4950-9D71-22518B350885}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{D3D0D0BC-B118-4FE4-9C27-E8CA5B6551C7}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -12885,7 +12885,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{62AA1EB8-5DAB-4CE7-BDFC-A7F9BA3C60F8}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4BBCB64B-1172-4576-BA44-B8A72CA23B97}">
   <dimension ref="B2:F102"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -14146,18 +14146,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{4395ED38-42A4-4693-9FC5-6F234E63EC60}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{EA45E0AC-EA72-4B94-A0D5-49BDCB509ED8}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{415FAB87-328E-4945-9436-3ACF9822928E}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{73F3A1A4-80F8-4600-8EA6-A452411B3A94}"/>
-    <hyperlink ref="D5" location="'MAYIS '!A1" display="MAYIS" xr:uid="{6A7F8AD2-5DCF-49A2-B84B-F603BF5CC705}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{FD5EC1AA-4F32-4BC3-B35F-41E826D527D5}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{BC1858E4-B4F3-41E6-B395-8D760F5C9475}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{6F1200E6-33E6-4C70-8812-E7FD4D32E70F}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{C3B3E3D7-EE52-4CBC-8696-283C8922D36D}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{A3AD243D-7D3E-4ECC-A66F-C10FCDC947C4}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{F2A9400D-055E-4529-A1E3-EF00942032D8}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{32C51AEF-F8F8-438A-88C2-02AA3038F8C9}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{6B29C6FB-47C7-4185-A513-17C47659DECB}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{03A1C485-6740-4D34-B9B6-007A0E456AAB}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{CE382007-C23E-4C39-A9B8-54BD4291997B}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{6F7FD185-B501-4A49-98B3-07B4A7E3B772}"/>
+    <hyperlink ref="D5" location="'MAYIS '!A1" display="MAYIS" xr:uid="{99BF5130-0DAA-4E27-B3DC-DDEB35F3C20B}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{D39E1015-AE44-43DB-826F-8719F090EA71}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{952B32D7-600B-4936-A1FB-D8179270E127}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{3786C28B-F4B7-4F7E-91B1-3E7CF48814AD}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{C727689F-96DA-437D-945A-67AC4F77FD0C}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{04F9F179-19A1-466E-99A9-D6238D6CB23F}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{ADC0F3B8-3BC8-401B-B25D-34264ED91567}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{AC92670E-ACB7-423E-84CD-5FC4974FA697}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -14170,7 +14170,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D2F2D8D5-79B9-404D-8B68-C54435377C38}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{09BC9C36-E44E-48BB-88D2-AC35CB506E99}">
   <dimension ref="B2:F102"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -15431,18 +15431,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{D14CFE0E-CAEC-4907-AAA5-5424B34A1800}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{5EE167FB-1C66-4F33-872E-84A7A5F1C189}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{520E30AE-B493-4A8E-B3D6-A6369C11A88D}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{1C128637-3492-4438-A9EF-8648782C7B8A}"/>
-    <hyperlink ref="D5" location="'MAYIS '!A1" display="MAYIS" xr:uid="{99D04E40-A1E0-4483-8EFA-333CB361C674}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{C17D9B47-9B96-40E2-AF63-11428DE84796}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{122B73B2-20DF-40E9-8745-5F1AE110FFFE}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{C49C7447-3BEA-44DD-B66F-DA55C2C02D19}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{2E51BFAB-19E5-4628-93AF-C51EF1BDAE03}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{AD30EEEF-A9DF-4C2D-A55A-C2F319F44697}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{6F4C7339-0924-496F-8186-798F8D480B39}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{4CAFCF60-20CB-403A-9C84-B9223C976FC9}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{9E37F108-7C57-4C67-A8A3-D769A6B057D8}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{551DBA0F-88D5-4025-9AE7-0C732FA0A199}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{9BAC03E5-3518-4A39-9809-9B9815859160}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{E2535CC4-10AE-4863-8917-3665F2B9AFB7}"/>
+    <hyperlink ref="D5" location="'MAYIS '!A1" display="MAYIS" xr:uid="{EEAC5A46-3E16-44CB-AE43-C01C40DEEDD8}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{DC1EEE79-02A2-42FD-99D5-6AD3CAE8ABE2}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{7375C1AA-3097-4581-93A9-422803194C22}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{1A5E31FA-D6C4-4B07-91F8-506B79A80404}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{142D3DD7-4528-4AE1-9413-84194EAF18D6}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{33227428-7622-4298-8277-19F5A993AF02}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{BB3A0B37-1BB1-408E-A168-784DC9EDF003}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{04C5F49C-B4BB-40E2-8680-BB5EE84725F2}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -15455,7 +15455,7 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A50A32C7-C31E-44EC-9C1A-BD0FDAEB91E2}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5FD3E081-30D0-4658-A6A2-DC7D7D17C71B}">
   <dimension ref="B2:F102"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -16712,18 +16712,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{32831297-6DAC-41BD-8F7F-9602B1BA55D4}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{4489C4B1-EEB7-493B-AA8E-B5FCD42D091C}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{6A89A71F-8A1A-4495-9D77-B2554C40ACBA}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{F801E357-AECA-4508-814A-7E1B57DB32CF}"/>
-    <hyperlink ref="D5" location="'MAYIS '!A1" display="MAYIS" xr:uid="{F32FC841-41D7-4F35-9703-B3E736D771E8}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{38BFDF73-8341-4F4F-8E21-D9F9401D0C53}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{C7EB3A4E-7D63-4030-8CC9-6F9CD6692C05}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{84E873FE-F9B8-43EB-AF3B-175C2B2C528A}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{82271EE2-4425-4B36-BD1E-B52FDDC91BF7}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{3ABEE3B7-D8AF-44D1-A3BB-EF390DDB0869}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{11A9DC67-0D61-463B-B8E4-FC7CD24007F9}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{D962AD8E-DA06-4715-957D-41958AD8B1DE}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{1B8D3D01-C255-431F-936B-6E1B9C22924D}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{BAEBBD9E-3257-4583-B607-DD46F0977F96}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{4EE98F20-BDAC-485D-9941-23F8952ACBEA}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{9B4DA812-D172-445B-BED0-BD9D6FEA06CC}"/>
+    <hyperlink ref="D5" location="'MAYIS '!A1" display="MAYIS" xr:uid="{FFA5F722-BA3E-4BF8-ABD7-7934E018A54C}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{B1C958DE-41EA-4CAA-8039-92FF8F0F9763}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{7CC4524B-E520-4EAD-92A6-69FEC25EF708}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{AC4655E8-08E5-41C3-96F7-7E35A5D20DF6}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{0903ED19-ADFC-436F-A599-6CC6EF2697C5}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{C586CB81-BAB3-48D8-8EDB-3E727D6A8EF1}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{899E4E63-FF14-4126-B5F3-9541E17D563A}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{0F4C369B-B503-46CB-A457-1CCD566884E2}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
